--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/L1cam-Ephb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/L1cam-Ephb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.467421333333334</v>
+        <v>6.713252999999999</v>
       </c>
       <c r="H2">
-        <v>25.402264</v>
+        <v>20.139759</v>
       </c>
       <c r="I2">
-        <v>0.2732469334691615</v>
+        <v>0.3101840064655811</v>
       </c>
       <c r="J2">
-        <v>0.312800300005396</v>
+        <v>0.3231642354899327</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.017772</v>
+        <v>0.02621333333333334</v>
       </c>
       <c r="N2">
-        <v>0.053316</v>
+        <v>0.07864</v>
       </c>
       <c r="O2">
-        <v>0.002629212535656932</v>
+        <v>0.003691658625980057</v>
       </c>
       <c r="P2">
-        <v>0.002699072137000843</v>
+        <v>0.00385459378223241</v>
       </c>
       <c r="Q2">
-        <v>0.150483011936</v>
+        <v>0.17597673864</v>
       </c>
       <c r="R2">
-        <v>1.354347107424</v>
+        <v>1.58379064776</v>
       </c>
       <c r="S2">
-        <v>0.000718424262806935</v>
+        <v>0.001145093463109716</v>
       </c>
       <c r="T2">
-        <v>0.000844270574190069</v>
+        <v>0.001245666852759385</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.467421333333334</v>
+        <v>6.713252999999999</v>
       </c>
       <c r="H3">
-        <v>25.402264</v>
+        <v>20.139759</v>
       </c>
       <c r="I3">
-        <v>0.2732469334691615</v>
+        <v>0.3101840064655811</v>
       </c>
       <c r="J3">
-        <v>0.312800300005396</v>
+        <v>0.3231642354899327</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>18.522097</v>
       </c>
       <c r="O3">
-        <v>0.9133942834993933</v>
+        <v>0.869497191776314</v>
       </c>
       <c r="P3">
-        <v>0.9376636644070619</v>
+        <v>0.9078733460084638</v>
       </c>
       <c r="Q3">
-        <v>52.27813309195646</v>
+        <v>41.447841083847</v>
       </c>
       <c r="R3">
-        <v>470.5031978276081</v>
+        <v>373.030569754623</v>
       </c>
       <c r="S3">
-        <v>0.2495821870144712</v>
+        <v>0.2697041225557488</v>
       </c>
       <c r="T3">
-        <v>0.2933014755306879</v>
+        <v>0.2933921957845123</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.467421333333334</v>
+        <v>6.713252999999999</v>
       </c>
       <c r="H4">
-        <v>25.402264</v>
+        <v>20.139759</v>
       </c>
       <c r="I4">
-        <v>0.2732469334691615</v>
+        <v>0.3101840064655811</v>
       </c>
       <c r="J4">
-        <v>0.312800300005396</v>
+        <v>0.3231642354899327</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.03562666666666667</v>
+        <v>0.900447</v>
       </c>
       <c r="N4">
-        <v>0.10688</v>
+        <v>1.800894</v>
       </c>
       <c r="O4">
-        <v>0.005270654884293887</v>
+        <v>0.1268111495977059</v>
       </c>
       <c r="P4">
-        <v>0.005410699039737605</v>
+        <v>0.08827206020930385</v>
       </c>
       <c r="Q4">
-        <v>0.3016659973688889</v>
+        <v>6.044928524090999</v>
       </c>
       <c r="R4">
-        <v>2.71499397632</v>
+        <v>36.269571144546</v>
       </c>
       <c r="S4">
-        <v>0.001440190284507563</v>
+        <v>0.03933479044672258</v>
       </c>
       <c r="T4">
-        <v>0.001692468282868831</v>
+        <v>0.02852637285266098</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.467421333333334</v>
+        <v>0.3343473333333333</v>
       </c>
       <c r="H5">
-        <v>25.402264</v>
+        <v>1.003042</v>
       </c>
       <c r="I5">
-        <v>0.2732469334691615</v>
+        <v>0.0154484264788496</v>
       </c>
       <c r="J5">
-        <v>0.312800300005396</v>
+        <v>0.01609489473505086</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.52486</v>
+        <v>0.02621333333333334</v>
       </c>
       <c r="N5">
-        <v>1.04972</v>
+        <v>0.07864</v>
       </c>
       <c r="O5">
-        <v>0.07764846339550401</v>
+        <v>0.003691658625980057</v>
       </c>
       <c r="P5">
-        <v>0.05314108342059654</v>
+        <v>0.00385459378223241</v>
       </c>
       <c r="Q5">
-        <v>4.444210761013334</v>
+        <v>0.008764358097777779</v>
       </c>
       <c r="R5">
-        <v>26.66526456608</v>
+        <v>0.07887922288</v>
       </c>
       <c r="S5">
-        <v>0.02121720451141391</v>
+        <v>5.703031686846383E-05</v>
       </c>
       <c r="T5">
-        <v>0.01662254683657437</v>
+        <v>6.203928117141218E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.467421333333334</v>
+        <v>0.3343473333333333</v>
       </c>
       <c r="H6">
-        <v>25.402264</v>
+        <v>1.003042</v>
       </c>
       <c r="I6">
-        <v>0.2732469334691615</v>
+        <v>0.0154484264788496</v>
       </c>
       <c r="J6">
-        <v>0.312800300005396</v>
+        <v>0.01609489473505086</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.007147333333333333</v>
+        <v>6.174032333333334</v>
       </c>
       <c r="N6">
-        <v>0.021442</v>
+        <v>18.522097</v>
       </c>
       <c r="O6">
-        <v>0.001057385685151848</v>
+        <v>0.869497191776314</v>
       </c>
       <c r="P6">
-        <v>0.001085480995603047</v>
+        <v>0.9078733460084638</v>
       </c>
       <c r="Q6">
-        <v>0.06051948274311111</v>
+        <v>2.064271246563778</v>
       </c>
       <c r="R6">
-        <v>0.5446753446880001</v>
+        <v>18.578441219074</v>
       </c>
       <c r="S6">
-        <v>0.0002889273959619308</v>
+        <v>0.01343236344072258</v>
       </c>
       <c r="T6">
-        <v>0.0003395387810747892</v>
+        <v>0.01461212593676463</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,45 +856,45 @@
         <v>1.003042</v>
       </c>
       <c r="I7">
-        <v>0.01078951666043525</v>
+        <v>0.0154484264788496</v>
       </c>
       <c r="J7">
-        <v>0.01235133366529898</v>
+        <v>0.01609489473505086</v>
       </c>
       <c r="K7">
         <v>2</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.017772</v>
+        <v>0.900447</v>
       </c>
       <c r="N7">
-        <v>0.053316</v>
+        <v>1.800894</v>
       </c>
       <c r="O7">
-        <v>0.002629212535656932</v>
+        <v>0.1268111495977059</v>
       </c>
       <c r="P7">
-        <v>0.002699072137000843</v>
+        <v>0.08827206020930385</v>
       </c>
       <c r="Q7">
-        <v>0.005942020807999999</v>
+        <v>0.301062053258</v>
       </c>
       <c r="R7">
-        <v>0.053478187272</v>
+        <v>1.806372319548</v>
       </c>
       <c r="S7">
-        <v>2.836793245729568E-05</v>
+        <v>0.001959032721258557</v>
       </c>
       <c r="T7">
-        <v>3.333714055080898E-05</v>
+        <v>0.001420729517114817</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.3343473333333333</v>
+        <v>6.661784666666667</v>
       </c>
       <c r="H8">
-        <v>1.003042</v>
+        <v>19.985354</v>
       </c>
       <c r="I8">
-        <v>0.01078951666043525</v>
+        <v>0.3078059262949933</v>
       </c>
       <c r="J8">
-        <v>0.01235133366529898</v>
+        <v>0.3206866401135023</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>6.174032333333334</v>
+        <v>0.02621333333333334</v>
       </c>
       <c r="N8">
-        <v>18.522097</v>
+        <v>0.07864</v>
       </c>
       <c r="O8">
-        <v>0.9133942834993933</v>
+        <v>0.003691658625980057</v>
       </c>
       <c r="P8">
-        <v>0.9376636644070619</v>
+        <v>0.00385459378223241</v>
       </c>
       <c r="Q8">
-        <v>2.064271246563778</v>
+        <v>0.1746275820622222</v>
       </c>
       <c r="R8">
-        <v>18.578441219074</v>
+        <v>1.57164823856</v>
       </c>
       <c r="S8">
-        <v>0.009855082839363026</v>
+        <v>0.001136314402934694</v>
       </c>
       <c r="T8">
-        <v>0.01158139678491855</v>
+        <v>0.001236116729026509</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,51 +974,51 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.3343473333333333</v>
+        <v>6.661784666666667</v>
       </c>
       <c r="H9">
-        <v>1.003042</v>
+        <v>19.985354</v>
       </c>
       <c r="I9">
-        <v>0.01078951666043525</v>
+        <v>0.3078059262949933</v>
       </c>
       <c r="J9">
-        <v>0.01235133366529898</v>
+        <v>0.3206866401135023</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.03562666666666667</v>
+        <v>6.174032333333334</v>
       </c>
       <c r="N9">
-        <v>0.10688</v>
+        <v>18.522097</v>
       </c>
       <c r="O9">
-        <v>0.005270654884293887</v>
+        <v>0.869497191776314</v>
       </c>
       <c r="P9">
-        <v>0.005410699039737605</v>
+        <v>0.9078733460084638</v>
       </c>
       <c r="Q9">
-        <v>0.01191168099555556</v>
+        <v>41.13007392970422</v>
       </c>
       <c r="R9">
-        <v>0.10720512896</v>
+        <v>370.1706653673381</v>
       </c>
       <c r="S9">
-        <v>5.686781868549334E-05</v>
+        <v>0.2676363885256038</v>
       </c>
       <c r="T9">
-        <v>6.682934920231196E-05</v>
+        <v>0.2911428529800574</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3343473333333333</v>
+        <v>6.661784666666667</v>
       </c>
       <c r="H10">
-        <v>1.003042</v>
+        <v>19.985354</v>
       </c>
       <c r="I10">
-        <v>0.01078951666043525</v>
+        <v>0.3078059262949933</v>
       </c>
       <c r="J10">
-        <v>0.01235133366529898</v>
+        <v>0.3206866401135023</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.52486</v>
+        <v>0.900447</v>
       </c>
       <c r="N10">
-        <v>1.04972</v>
+        <v>1.800894</v>
       </c>
       <c r="O10">
-        <v>0.07764846339550401</v>
+        <v>0.1268111495977059</v>
       </c>
       <c r="P10">
-        <v>0.05314108342059654</v>
+        <v>0.08827206020930385</v>
       </c>
       <c r="Q10">
-        <v>0.1754855413733333</v>
+        <v>5.998584017746</v>
       </c>
       <c r="R10">
-        <v>1.05291324824</v>
+        <v>35.991504106476</v>
       </c>
       <c r="S10">
-        <v>0.0008377893894629875</v>
+        <v>0.03903322336645483</v>
       </c>
       <c r="T10">
-        <v>0.0006563632526632756</v>
+        <v>0.02830767040441843</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3343473333333333</v>
+        <v>2.607918</v>
       </c>
       <c r="H11">
-        <v>1.003042</v>
+        <v>5.215835999999999</v>
       </c>
       <c r="I11">
-        <v>0.01078951666043525</v>
+        <v>0.1204981331366039</v>
       </c>
       <c r="J11">
-        <v>0.01235133366529898</v>
+        <v>0.08369373503331734</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.007147333333333333</v>
+        <v>0.02621333333333334</v>
       </c>
       <c r="N11">
-        <v>0.021442</v>
+        <v>0.07864</v>
       </c>
       <c r="O11">
-        <v>0.001057385685151848</v>
+        <v>0.003691658625980057</v>
       </c>
       <c r="P11">
-        <v>0.001085480995603047</v>
+        <v>0.00385459378223241</v>
       </c>
       <c r="Q11">
-        <v>0.002389691840444444</v>
+        <v>0.06836222384</v>
       </c>
       <c r="R11">
-        <v>0.021507226564</v>
+        <v>0.41017334304</v>
       </c>
       <c r="S11">
-        <v>1.140868046645161E-05</v>
+        <v>0.0004448379726082371</v>
       </c>
       <c r="T11">
-        <v>1.340713796403418E-05</v>
+        <v>0.0003226053506712319</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.140032333333333</v>
+        <v>2.607918</v>
       </c>
       <c r="H12">
-        <v>12.420097</v>
+        <v>5.215835999999999</v>
       </c>
       <c r="I12">
-        <v>0.1336004309946362</v>
+        <v>0.1204981331366039</v>
       </c>
       <c r="J12">
-        <v>0.1529395201819853</v>
+        <v>0.08369373503331734</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.017772</v>
+        <v>6.174032333333334</v>
       </c>
       <c r="N12">
-        <v>0.053316</v>
+        <v>18.522097</v>
       </c>
       <c r="O12">
-        <v>0.002629212535656932</v>
+        <v>0.869497191776314</v>
       </c>
       <c r="P12">
-        <v>0.002699072137000843</v>
+        <v>0.9078733460084638</v>
       </c>
       <c r="Q12">
-        <v>0.07357665462799999</v>
+        <v>16.101370054682</v>
       </c>
       <c r="R12">
-        <v>0.662189891652</v>
+        <v>96.608220328092</v>
       </c>
       <c r="S12">
-        <v>0.0003512639279402664</v>
+        <v>0.1047727883765655</v>
       </c>
       <c r="T12">
-        <v>0.0004127947975694746</v>
+        <v>0.0759833112646436</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.140032333333333</v>
+        <v>2.607918</v>
       </c>
       <c r="H13">
-        <v>12.420097</v>
+        <v>5.215835999999999</v>
       </c>
       <c r="I13">
-        <v>0.1336004309946362</v>
+        <v>0.1204981331366039</v>
       </c>
       <c r="J13">
-        <v>0.1529395201819853</v>
+        <v>0.08369373503331734</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.174032333333334</v>
+        <v>0.900447</v>
       </c>
       <c r="N13">
-        <v>18.522097</v>
+        <v>1.800894</v>
       </c>
       <c r="O13">
-        <v>0.9133942834993933</v>
+        <v>0.1268111495977059</v>
       </c>
       <c r="P13">
-        <v>0.9376636644070619</v>
+        <v>0.08827206020930385</v>
       </c>
       <c r="Q13">
-        <v>25.56069348704544</v>
+        <v>2.348291939346</v>
       </c>
       <c r="R13">
-        <v>230.046241383409</v>
+        <v>9.393167757383999</v>
       </c>
       <c r="S13">
-        <v>0.1220298699435559</v>
+        <v>0.01528050678743016</v>
       </c>
       <c r="T13">
-        <v>0.1434058309264981</v>
+        <v>0.007387818418002511</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.140032333333333</v>
+        <v>5.325505333333333</v>
       </c>
       <c r="H14">
-        <v>12.420097</v>
+        <v>15.976516</v>
       </c>
       <c r="I14">
-        <v>0.1336004309946362</v>
+        <v>0.2460635076239721</v>
       </c>
       <c r="J14">
-        <v>0.1529395201819853</v>
+        <v>0.2563604946281968</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,33 +1302,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.03562666666666667</v>
+        <v>0.02621333333333334</v>
       </c>
       <c r="N14">
-        <v>0.10688</v>
+        <v>0.07864</v>
       </c>
       <c r="O14">
-        <v>0.005270654884293887</v>
+        <v>0.003691658625980057</v>
       </c>
       <c r="P14">
-        <v>0.005410699039737605</v>
+        <v>0.00385459378223241</v>
       </c>
       <c r="Q14">
-        <v>0.1474955519288889</v>
+        <v>0.1395992464711111</v>
       </c>
       <c r="R14">
-        <v>1.32745996736</v>
+        <v>1.25639321824</v>
       </c>
       <c r="S14">
-        <v>0.0007041617641656478</v>
+        <v>0.0009083824704589461</v>
       </c>
       <c r="T14">
-        <v>0.0008275097149865978</v>
+        <v>0.0009881655686038724</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,7 +1337,7 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,51 +1346,51 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.140032333333333</v>
+        <v>5.325505333333333</v>
       </c>
       <c r="H15">
-        <v>12.420097</v>
+        <v>15.976516</v>
       </c>
       <c r="I15">
-        <v>0.1336004309946362</v>
+        <v>0.2460635076239721</v>
       </c>
       <c r="J15">
-        <v>0.1529395201819853</v>
+        <v>0.2563604946281968</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.52486</v>
+        <v>6.174032333333334</v>
       </c>
       <c r="N15">
-        <v>1.04972</v>
+        <v>18.522097</v>
       </c>
       <c r="O15">
-        <v>0.07764846339550401</v>
+        <v>0.869497191776314</v>
       </c>
       <c r="P15">
-        <v>0.05314108342059654</v>
+        <v>0.9078733460084638</v>
       </c>
       <c r="Q15">
-        <v>2.172937370473333</v>
+        <v>32.87984211933911</v>
       </c>
       <c r="R15">
-        <v>13.03762422284</v>
+        <v>295.918579074052</v>
       </c>
       <c r="S15">
-        <v>0.01037386817571057</v>
+        <v>0.2139515288776734</v>
       </c>
       <c r="T15">
-        <v>0.008127371800296889</v>
+        <v>0.2327428600424858</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,666 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.140032333333333</v>
+        <v>5.325505333333333</v>
       </c>
       <c r="H16">
-        <v>12.420097</v>
+        <v>15.976516</v>
       </c>
       <c r="I16">
-        <v>0.1336004309946362</v>
+        <v>0.2460635076239721</v>
       </c>
       <c r="J16">
-        <v>0.1529395201819853</v>
+        <v>0.2563604946281968</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.007147333333333333</v>
+        <v>0.900447</v>
       </c>
       <c r="N16">
-        <v>0.021442</v>
+        <v>1.800894</v>
       </c>
       <c r="O16">
-        <v>0.001057385685151848</v>
+        <v>0.1268111495977059</v>
       </c>
       <c r="P16">
-        <v>0.001085480995603047</v>
+        <v>0.08827206020930385</v>
       </c>
       <c r="Q16">
-        <v>0.02959019109711111</v>
+        <v>4.795335300884</v>
       </c>
       <c r="R16">
-        <v>0.266311719874</v>
+        <v>28.772011805304</v>
       </c>
       <c r="S16">
-        <v>0.0001412671832638456</v>
+        <v>0.03120359627583977</v>
       </c>
       <c r="T16">
-        <v>0.0001660129426341938</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>11.755292</v>
-      </c>
-      <c r="H17">
-        <v>23.510584</v>
-      </c>
-      <c r="I17">
-        <v>0.3793477806979605</v>
-      </c>
-      <c r="J17">
-        <v>0.2895063892140504</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M17">
-        <v>0.017772</v>
-      </c>
-      <c r="N17">
-        <v>0.053316</v>
-      </c>
-      <c r="O17">
-        <v>0.002629212535656932</v>
-      </c>
-      <c r="P17">
-        <v>0.002699072137000843</v>
-      </c>
-      <c r="Q17">
-        <v>0.208915049424</v>
-      </c>
-      <c r="R17">
-        <v>1.253490296544</v>
-      </c>
-      <c r="S17">
-        <v>0.0009973859403847145</v>
-      </c>
-      <c r="T17">
-        <v>0.000781398628611365</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>11.755292</v>
-      </c>
-      <c r="H18">
-        <v>23.510584</v>
-      </c>
-      <c r="I18">
-        <v>0.3793477806979605</v>
-      </c>
-      <c r="J18">
-        <v>0.2895063892140504</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>6.174032333333334</v>
-      </c>
-      <c r="N18">
-        <v>18.522097</v>
-      </c>
-      <c r="O18">
-        <v>0.9133942834993933</v>
-      </c>
-      <c r="P18">
-        <v>0.9376636644070619</v>
-      </c>
-      <c r="Q18">
-        <v>72.57755289577466</v>
-      </c>
-      <c r="R18">
-        <v>435.465317374648</v>
-      </c>
-      <c r="S18">
-        <v>0.3464940943476987</v>
-      </c>
-      <c r="T18">
-        <v>0.2714596217797036</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>11.755292</v>
-      </c>
-      <c r="H19">
-        <v>23.510584</v>
-      </c>
-      <c r="I19">
-        <v>0.3793477806979605</v>
-      </c>
-      <c r="J19">
-        <v>0.2895063892140504</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M19">
-        <v>0.03562666666666667</v>
-      </c>
-      <c r="N19">
-        <v>0.10688</v>
-      </c>
-      <c r="O19">
-        <v>0.005270654884293887</v>
-      </c>
-      <c r="P19">
-        <v>0.005410699039737605</v>
-      </c>
-      <c r="Q19">
-        <v>0.4188018696533333</v>
-      </c>
-      <c r="R19">
-        <v>2.51281121792</v>
-      </c>
-      <c r="S19">
-        <v>0.001999411233181752</v>
-      </c>
-      <c r="T19">
-        <v>0.001566431942118364</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>11.755292</v>
-      </c>
-      <c r="H20">
-        <v>23.510584</v>
-      </c>
-      <c r="I20">
-        <v>0.3793477806979605</v>
-      </c>
-      <c r="J20">
-        <v>0.2895063892140504</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>0.52486</v>
-      </c>
-      <c r="N20">
-        <v>1.04972</v>
-      </c>
-      <c r="O20">
-        <v>0.07764846339550401</v>
-      </c>
-      <c r="P20">
-        <v>0.05314108342059654</v>
-      </c>
-      <c r="Q20">
-        <v>6.169882559119999</v>
-      </c>
-      <c r="R20">
-        <v>24.67953023648</v>
-      </c>
-      <c r="S20">
-        <v>0.02945577226369127</v>
-      </c>
-      <c r="T20">
-        <v>0.01538468318001954</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>11.755292</v>
-      </c>
-      <c r="H21">
-        <v>23.510584</v>
-      </c>
-      <c r="I21">
-        <v>0.3793477806979605</v>
-      </c>
-      <c r="J21">
-        <v>0.2895063892140504</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.007147333333333333</v>
-      </c>
-      <c r="N21">
-        <v>0.021442</v>
-      </c>
-      <c r="O21">
-        <v>0.001057385685151848</v>
-      </c>
-      <c r="P21">
-        <v>0.001085480995603047</v>
-      </c>
-      <c r="Q21">
-        <v>0.08401899035466666</v>
-      </c>
-      <c r="R21">
-        <v>0.504113942128</v>
-      </c>
-      <c r="S21">
-        <v>0.0004011169130041461</v>
-      </c>
-      <c r="T21">
-        <v>0.0003142536835975108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>6.291073</v>
-      </c>
-      <c r="H22">
-        <v>18.873219</v>
-      </c>
-      <c r="I22">
-        <v>0.2030153381778063</v>
-      </c>
-      <c r="J22">
-        <v>0.2324024569332694</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M22">
-        <v>0.017772</v>
-      </c>
-      <c r="N22">
-        <v>0.053316</v>
-      </c>
-      <c r="O22">
-        <v>0.002629212535656932</v>
-      </c>
-      <c r="P22">
-        <v>0.002699072137000843</v>
-      </c>
-      <c r="Q22">
-        <v>0.111804949356</v>
-      </c>
-      <c r="R22">
-        <v>1.006244544204</v>
-      </c>
-      <c r="S22">
-        <v>0.0005337704720677196</v>
-      </c>
-      <c r="T22">
-        <v>0.0006272709960791257</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>6.291073</v>
-      </c>
-      <c r="H23">
-        <v>18.873219</v>
-      </c>
-      <c r="I23">
-        <v>0.2030153381778063</v>
-      </c>
-      <c r="J23">
-        <v>0.2324024569332694</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>6.174032333333334</v>
-      </c>
-      <c r="N23">
-        <v>18.522097</v>
-      </c>
-      <c r="O23">
-        <v>0.9133942834993933</v>
-      </c>
-      <c r="P23">
-        <v>0.9376636644070619</v>
-      </c>
-      <c r="Q23">
-        <v>38.84128811336033</v>
-      </c>
-      <c r="R23">
-        <v>349.571593020243</v>
-      </c>
-      <c r="S23">
-        <v>0.1854330493543044</v>
-      </c>
-      <c r="T23">
-        <v>0.2179153393852538</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>6.291073</v>
-      </c>
-      <c r="H24">
-        <v>18.873219</v>
-      </c>
-      <c r="I24">
-        <v>0.2030153381778063</v>
-      </c>
-      <c r="J24">
-        <v>0.2324024569332694</v>
-      </c>
-      <c r="K24">
-        <v>2</v>
-      </c>
-      <c r="L24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M24">
-        <v>0.03562666666666667</v>
-      </c>
-      <c r="N24">
-        <v>0.10688</v>
-      </c>
-      <c r="O24">
-        <v>0.005270654884293887</v>
-      </c>
-      <c r="P24">
-        <v>0.005410699039737605</v>
-      </c>
-      <c r="Q24">
-        <v>0.2241299607466667</v>
-      </c>
-      <c r="R24">
-        <v>2.01716964672</v>
-      </c>
-      <c r="S24">
-        <v>0.00107002378375343</v>
-      </c>
-      <c r="T24">
-        <v>0.001257459750561501</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>6.291073</v>
-      </c>
-      <c r="H25">
-        <v>18.873219</v>
-      </c>
-      <c r="I25">
-        <v>0.2030153381778063</v>
-      </c>
-      <c r="J25">
-        <v>0.2324024569332694</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.52486</v>
-      </c>
-      <c r="N25">
-        <v>1.04972</v>
-      </c>
-      <c r="O25">
-        <v>0.07764846339550401</v>
-      </c>
-      <c r="P25">
-        <v>0.05314108342059654</v>
-      </c>
-      <c r="Q25">
-        <v>3.30193257478</v>
-      </c>
-      <c r="R25">
-        <v>19.81159544868</v>
-      </c>
-      <c r="S25">
-        <v>0.01576382905522526</v>
-      </c>
-      <c r="T25">
-        <v>0.01235011835104246</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>6.291073</v>
-      </c>
-      <c r="H26">
-        <v>18.873219</v>
-      </c>
-      <c r="I26">
-        <v>0.2030153381778063</v>
-      </c>
-      <c r="J26">
-        <v>0.2324024569332694</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M26">
-        <v>0.007147333333333333</v>
-      </c>
-      <c r="N26">
-        <v>0.021442</v>
-      </c>
-      <c r="O26">
-        <v>0.001057385685151848</v>
-      </c>
-      <c r="P26">
-        <v>0.001085480995603047</v>
-      </c>
-      <c r="Q26">
-        <v>0.04496439575533333</v>
-      </c>
-      <c r="R26">
-        <v>0.404679561798</v>
-      </c>
-      <c r="S26">
-        <v>0.0002146655124554739</v>
-      </c>
-      <c r="T26">
-        <v>0.0002522684503325196</v>
+        <v>0.0226294690171071</v>
       </c>
     </row>
   </sheetData>
